--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="197">
   <si>
     <t>胡斐居</t>
   </si>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>55_meizhuang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>56_fuweibiaoju</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -555,10 +551,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>67_shandong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>68_kunlunpai</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -595,10 +587,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>76_pilitang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>77_wanedao</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -619,15 +607,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>82_meizhuangdilao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Leave2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>83_shengtang</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -881,12 +861,39 @@
     <t>Jyx2Configs.Jyx2ConfigMap</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>67_shandong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>82_meizhuangdilao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>83_shengtang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_meizhuang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>76_pilitang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转场景</t>
+  </si>
+  <si>
+    <t>TransportToMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -936,6 +943,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -971,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +996,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1333,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT203"/>
+  <dimension ref="A1:AU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1344,18 +1358,18 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1366,41 +1380,46 @@
         <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1420,8 +1439,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1435,12 +1455,14 @@
         <v>-1</v>
       </c>
       <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1461,8 +1483,9 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1473,15 +1496,17 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1502,8 +1527,9 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1517,12 +1543,14 @@
         <v>-1</v>
       </c>
       <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1">
         <v>19</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1543,8 +1571,9 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1555,15 +1584,17 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1584,8 +1615,9 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1596,18 +1628,20 @@
         <v>85</v>
       </c>
       <c r="D8" s="1">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1627,30 +1661,33 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1670,8 +1707,9 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1682,15 +1720,17 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>19</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1711,30 +1751,33 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1754,8 +1797,9 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1766,15 +1810,17 @@
         <v>91</v>
       </c>
       <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1795,8 +1841,9 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1810,12 +1857,14 @@
         <v>-1</v>
       </c>
       <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1836,8 +1885,9 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1848,18 +1898,20 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>19</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1879,8 +1931,9 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1891,15 +1944,17 @@
         <v>95</v>
       </c>
       <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1920,8 +1975,9 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1932,15 +1988,17 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
         <v>-1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1961,8 +2019,9 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1976,12 +2035,14 @@
         <v>12</v>
       </c>
       <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
         <v>16</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2002,8 +2063,9 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2014,18 +2076,20 @@
         <v>98</v>
       </c>
       <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
         <v>12</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2045,8 +2109,9 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2057,15 +2122,17 @@
         <v>99</v>
       </c>
       <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>16</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2086,8 +2153,9 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2098,15 +2166,17 @@
         <v>100</v>
       </c>
       <c r="D20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2127,8 +2197,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2139,15 +2210,17 @@
         <v>101</v>
       </c>
       <c r="D21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2168,8 +2241,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2180,18 +2254,20 @@
         <v>102</v>
       </c>
       <c r="D22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="1">
         <v>12</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2211,8 +2287,9 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2223,15 +2300,17 @@
         <v>103</v>
       </c>
       <c r="D23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="1">
         <v>22</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2252,8 +2331,9 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2264,15 +2344,17 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="1">
         <v>13</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>19</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2293,8 +2375,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2305,18 +2388,20 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="1">
         <v>8</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>16</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2336,8 +2421,9 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2351,12 +2437,14 @@
         <v>-1</v>
       </c>
       <c r="E26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1">
         <v>16</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2377,8 +2465,9 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2392,12 +2481,14 @@
         <v>-1</v>
       </c>
       <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2418,8 +2509,9 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2433,12 +2525,14 @@
         <v>-1</v>
       </c>
       <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1">
         <v>16</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2459,8 +2553,9 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2471,15 +2566,17 @@
         <v>110</v>
       </c>
       <c r="D29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="1">
         <v>15</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>19</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2500,8 +2597,9 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2515,12 +2613,14 @@
         <v>-1</v>
       </c>
       <c r="E30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1">
         <v>16</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2541,8 +2641,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2556,12 +2657,14 @@
         <v>-1</v>
       </c>
       <c r="E31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2582,8 +2685,9 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2594,15 +2698,17 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="1">
         <v>20</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2623,8 +2729,9 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2635,15 +2742,17 @@
         <v>114</v>
       </c>
       <c r="D33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="1">
         <v>22</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2664,8 +2773,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2679,12 +2789,14 @@
         <v>-1</v>
       </c>
       <c r="E34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2705,8 +2817,9 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2717,15 +2830,17 @@
         <v>116</v>
       </c>
       <c r="D35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="1">
         <v>21</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2746,8 +2861,9 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2758,15 +2874,17 @@
         <v>117</v>
       </c>
       <c r="D36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>19</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2787,8 +2905,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2799,15 +2918,17 @@
         <v>118</v>
       </c>
       <c r="D37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1">
         <v>23</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2828,8 +2949,9 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2843,12 +2965,14 @@
         <v>-1</v>
       </c>
       <c r="E38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2869,8 +2993,9 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2881,15 +3006,17 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2910,8 +3037,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -2925,12 +3053,14 @@
         <v>-1</v>
       </c>
       <c r="E40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="1">
         <v>16</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2951,8 +3081,9 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -2966,12 +3097,14 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="1">
         <v>19</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2992,8 +3125,9 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -3007,12 +3141,14 @@
         <v>-1</v>
       </c>
       <c r="E42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="1">
         <v>16</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3033,8 +3169,9 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -3045,15 +3182,17 @@
         <v>124</v>
       </c>
       <c r="D43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="1">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3074,27 +3213,30 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3115,30 +3257,33 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="1">
         <v>12</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>16</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3158,8 +3303,9 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -3170,18 +3316,20 @@
         <v>128</v>
       </c>
       <c r="D46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="1">
         <v>12</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>16</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3201,8 +3349,9 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -3213,15 +3362,17 @@
         <v>129</v>
       </c>
       <c r="D47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="1">
         <v>22</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3242,8 +3393,9 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -3257,12 +3409,14 @@
         <v>-1</v>
       </c>
       <c r="E48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="1">
         <v>16</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3283,27 +3437,30 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="1">
         <v>8</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>19</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3324,8 +3481,9 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -3336,18 +3494,20 @@
         <v>131</v>
       </c>
       <c r="D50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="1">
         <v>12</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3367,8 +3527,9 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -3379,15 +3540,17 @@
         <v>133</v>
       </c>
       <c r="D51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="1">
         <v>8</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>16</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3408,8 +3571,9 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -3423,12 +3587,14 @@
         <v>-1</v>
       </c>
       <c r="E52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3449,8 +3615,9 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -3461,15 +3628,17 @@
         <v>135</v>
       </c>
       <c r="D53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>16</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3490,27 +3659,30 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>19</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3531,8 +3703,9 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -3546,12 +3719,14 @@
         <v>-1</v>
       </c>
       <c r="E55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="1">
         <v>16</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3572,8 +3747,9 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3584,15 +3760,17 @@
         <v>137</v>
       </c>
       <c r="D56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>1</v>
       </c>
-      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3613,8 +3791,9 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3628,12 +3807,14 @@
         <v>-1</v>
       </c>
       <c r="E57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="1">
         <v>16</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>1</v>
       </c>
-      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3654,8 +3835,9 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -3669,12 +3851,14 @@
         <v>-1</v>
       </c>
       <c r="E58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>1</v>
       </c>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3695,8 +3879,9 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -3704,18 +3889,20 @@
         <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D59" s="1">
+        <v>82</v>
+      </c>
+      <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>1</v>
       </c>
-      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3736,8 +3923,9 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -3745,18 +3933,20 @@
         <v>50</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="1">
         <v>9</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>16</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>1</v>
       </c>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3777,8 +3967,9 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -3786,18 +3977,20 @@
         <v>51</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D61" s="1">
         <v>-1</v>
       </c>
       <c r="E61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>1</v>
       </c>
-      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3818,8 +4011,9 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -3827,18 +4021,20 @@
         <v>52</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="1">
         <v>-1</v>
       </c>
       <c r="E62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3859,8 +4055,9 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -3868,18 +4065,20 @@
         <v>53</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D63" s="1">
         <v>-1</v>
       </c>
       <c r="E63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>1</v>
       </c>
-      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3900,8 +4099,9 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -3909,18 +4109,20 @@
         <v>54</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="1">
         <v>2</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>19</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3941,8 +4143,9 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -3950,18 +4153,20 @@
         <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="1">
         <v>2</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>19</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3982,8 +4187,9 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -3991,18 +4197,20 @@
         <v>56</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="1">
         <v>-1</v>
       </c>
       <c r="E66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="1">
         <v>0</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>1</v>
       </c>
-      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4023,8 +4231,9 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -4032,18 +4241,20 @@
         <v>57</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67" s="1">
         <v>-1</v>
       </c>
       <c r="E67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>1</v>
       </c>
-      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -4064,8 +4275,9 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -4073,18 +4285,20 @@
         <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="1">
         <v>11</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -4105,30 +4319,33 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="1"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="1">
         <v>12</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>19</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4148,30 +4365,33 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="1"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="1">
         <v>12</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>16</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>1</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4191,30 +4411,33 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="1"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
         <v>12</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>16</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>1</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4234,8 +4457,9 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="1"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -4243,18 +4467,20 @@
         <v>59</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="1">
         <v>4</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -4275,8 +4501,9 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="1"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -4284,18 +4511,20 @@
         <v>60</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="1">
         <v>4</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>0</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -4316,8 +4545,9 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="1"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -4325,21 +4555,23 @@
         <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="1">
         <v>-1</v>
       </c>
       <c r="E74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="1">
         <v>19</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>0</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4359,8 +4591,9 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="1"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -4368,18 +4601,20 @@
         <v>62</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="1">
         <v>-1</v>
       </c>
       <c r="E75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="1">
         <v>0</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>1</v>
       </c>
-      <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4400,8 +4635,9 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="1"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -4409,21 +4645,23 @@
         <v>63</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="1">
         <v>12</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>16</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4443,8 +4681,9 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="1"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -4452,18 +4691,20 @@
         <v>64</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D77" s="1">
         <v>-1</v>
       </c>
       <c r="E77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="1">
         <v>0</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>1</v>
       </c>
-      <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4484,8 +4725,9 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -4493,18 +4735,20 @@
         <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="1">
         <v>12</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>16</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4525,8 +4769,9 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB78" s="1"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -4534,18 +4779,20 @@
         <v>66</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D79" s="1">
         <v>-1</v>
       </c>
       <c r="E79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="1">
         <v>0</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>1</v>
       </c>
-      <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4566,8 +4813,9 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB79" s="1"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -4575,18 +4823,20 @@
         <v>67</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D80" s="1">
+        <v>83</v>
+      </c>
+      <c r="E80" s="1">
         <v>-1</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>19</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>1</v>
       </c>
-      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4607,8 +4857,9 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
-    </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB80" s="1"/>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -4616,18 +4867,20 @@
         <v>68</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D81" s="1">
         <v>-1</v>
       </c>
       <c r="E81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="1">
         <v>19</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>1</v>
       </c>
-      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4648,8 +4901,9 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-    </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB81" s="1"/>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -4657,18 +4911,20 @@
         <v>69</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D82" s="1">
         <v>-1</v>
       </c>
       <c r="E82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4689,27 +4945,30 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
-    </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB82" s="1"/>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="1">
         <v>12</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>19</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <v>1</v>
       </c>
-      <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -4730,8 +4989,9 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
-    </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB83" s="1"/>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -4739,18 +4999,20 @@
         <v>70</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="1">
         <v>9</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>16</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <v>1</v>
       </c>
-      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4771,8 +5033,9 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
-    </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB84" s="1"/>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -4780,18 +5043,20 @@
         <v>71</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="1">
         <v>16</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>19</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>1</v>
       </c>
-      <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -4812,8 +5077,9 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
-    </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB85" s="1"/>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -4821,21 +5087,23 @@
         <v>72</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D86" s="1">
+        <v>55</v>
+      </c>
+      <c r="E86" s="1">
         <v>12</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
       </c>
       <c r="F86" s="1">
         <v>1</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H86" s="1"/>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4855,8 +5123,9 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
-    </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB86" s="1"/>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -4864,21 +5133,23 @@
         <v>73</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D87" s="1">
+        <v>76</v>
+      </c>
+      <c r="E87" s="1">
         <v>17</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>19</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>1</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -4898,16 +5169,17 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
-    </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AB87" s="1"/>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D88" s="1">
         <v>-1</v>
@@ -4916,12 +5188,14 @@
         <v>-1</v>
       </c>
       <c r="F88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4960,8 +5234,9 @@
       <c r="AR88" s="1"/>
       <c r="AS88" s="1"/>
       <c r="AT88" s="1"/>
-    </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU88" s="1"/>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5008,8 +5283,9 @@
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
       <c r="AT89" s="1"/>
-    </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU89" s="1"/>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5056,8 +5332,9 @@
       <c r="AR90" s="1"/>
       <c r="AS90" s="1"/>
       <c r="AT90" s="1"/>
-    </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU90" s="1"/>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5104,8 +5381,9 @@
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
       <c r="AT91" s="1"/>
-    </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU91" s="1"/>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5152,8 +5430,9 @@
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
       <c r="AT92" s="1"/>
-    </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU92" s="1"/>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5200,8 +5479,9 @@
       <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
-    </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU93" s="1"/>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5248,8 +5528,9 @@
       <c r="AR94" s="1"/>
       <c r="AS94" s="1"/>
       <c r="AT94" s="1"/>
-    </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU94" s="1"/>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5296,8 +5577,9 @@
       <c r="AR95" s="1"/>
       <c r="AS95" s="1"/>
       <c r="AT95" s="1"/>
-    </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU95" s="1"/>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5344,8 +5626,9 @@
       <c r="AR96" s="1"/>
       <c r="AS96" s="1"/>
       <c r="AT96" s="1"/>
-    </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU96" s="1"/>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5392,8 +5675,9 @@
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
       <c r="AT97" s="1"/>
-    </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU97" s="1"/>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5440,8 +5724,9 @@
       <c r="AR98" s="1"/>
       <c r="AS98" s="1"/>
       <c r="AT98" s="1"/>
-    </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU98" s="1"/>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5488,8 +5773,9 @@
       <c r="AR99" s="1"/>
       <c r="AS99" s="1"/>
       <c r="AT99" s="1"/>
-    </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU99" s="1"/>
+    </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5536,8 +5822,9 @@
       <c r="AR100" s="1"/>
       <c r="AS100" s="1"/>
       <c r="AT100" s="1"/>
-    </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU100" s="1"/>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5584,8 +5871,9 @@
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
       <c r="AT101" s="1"/>
-    </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU101" s="1"/>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5632,8 +5920,9 @@
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
-    </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU102" s="1"/>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5680,8 +5969,9 @@
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
-    </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU103" s="1"/>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5728,8 +6018,9 @@
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
-    </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU104" s="1"/>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5776,8 +6067,9 @@
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
-    </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU105" s="1"/>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5824,8 +6116,9 @@
       <c r="AR106" s="1"/>
       <c r="AS106" s="1"/>
       <c r="AT106" s="1"/>
-    </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU106" s="1"/>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5872,8 +6165,9 @@
       <c r="AR107" s="1"/>
       <c r="AS107" s="1"/>
       <c r="AT107" s="1"/>
-    </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU107" s="1"/>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5920,8 +6214,9 @@
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
       <c r="AT108" s="1"/>
-    </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU108" s="1"/>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5968,8 +6263,9 @@
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
       <c r="AT109" s="1"/>
-    </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU109" s="1"/>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6016,8 +6312,9 @@
       <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
       <c r="AT110" s="1"/>
-    </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU110" s="1"/>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6064,8 +6361,9 @@
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
-    </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU111" s="1"/>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6112,8 +6410,9 @@
       <c r="AR112" s="1"/>
       <c r="AS112" s="1"/>
       <c r="AT112" s="1"/>
-    </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU112" s="1"/>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6160,8 +6459,9 @@
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
       <c r="AT113" s="1"/>
-    </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU113" s="1"/>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6208,8 +6508,9 @@
       <c r="AR114" s="1"/>
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
-    </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU114" s="1"/>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6256,8 +6557,9 @@
       <c r="AR115" s="1"/>
       <c r="AS115" s="1"/>
       <c r="AT115" s="1"/>
-    </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU115" s="1"/>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6304,8 +6606,9 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
       <c r="AT116" s="1"/>
-    </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU116" s="1"/>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6352,8 +6655,9 @@
       <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
       <c r="AT117" s="1"/>
-    </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU117" s="1"/>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6400,8 +6704,9 @@
       <c r="AR118" s="1"/>
       <c r="AS118" s="1"/>
       <c r="AT118" s="1"/>
-    </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU118" s="1"/>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6448,8 +6753,9 @@
       <c r="AR119" s="1"/>
       <c r="AS119" s="1"/>
       <c r="AT119" s="1"/>
-    </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU119" s="1"/>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6496,8 +6802,9 @@
       <c r="AR120" s="1"/>
       <c r="AS120" s="1"/>
       <c r="AT120" s="1"/>
-    </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU120" s="1"/>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6544,8 +6851,9 @@
       <c r="AR121" s="1"/>
       <c r="AS121" s="1"/>
       <c r="AT121" s="1"/>
-    </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU121" s="1"/>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6592,8 +6900,9 @@
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
       <c r="AT122" s="1"/>
-    </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU122" s="1"/>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6640,8 +6949,9 @@
       <c r="AR123" s="1"/>
       <c r="AS123" s="1"/>
       <c r="AT123" s="1"/>
-    </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU123" s="1"/>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6688,8 +6998,9 @@
       <c r="AR124" s="1"/>
       <c r="AS124" s="1"/>
       <c r="AT124" s="1"/>
-    </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU124" s="1"/>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6736,8 +7047,9 @@
       <c r="AR125" s="1"/>
       <c r="AS125" s="1"/>
       <c r="AT125" s="1"/>
-    </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU125" s="1"/>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6784,8 +7096,9 @@
       <c r="AR126" s="1"/>
       <c r="AS126" s="1"/>
       <c r="AT126" s="1"/>
-    </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU126" s="1"/>
+    </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6832,8 +7145,9 @@
       <c r="AR127" s="1"/>
       <c r="AS127" s="1"/>
       <c r="AT127" s="1"/>
-    </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU127" s="1"/>
+    </row>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6880,8 +7194,9 @@
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
-    </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU128" s="1"/>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6928,8 +7243,9 @@
       <c r="AR129" s="1"/>
       <c r="AS129" s="1"/>
       <c r="AT129" s="1"/>
-    </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU129" s="1"/>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6976,8 +7292,9 @@
       <c r="AR130" s="1"/>
       <c r="AS130" s="1"/>
       <c r="AT130" s="1"/>
-    </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU130" s="1"/>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7024,8 +7341,9 @@
       <c r="AR131" s="1"/>
       <c r="AS131" s="1"/>
       <c r="AT131" s="1"/>
-    </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU131" s="1"/>
+    </row>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7072,8 +7390,9 @@
       <c r="AR132" s="1"/>
       <c r="AS132" s="1"/>
       <c r="AT132" s="1"/>
-    </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU132" s="1"/>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7120,8 +7439,9 @@
       <c r="AR133" s="1"/>
       <c r="AS133" s="1"/>
       <c r="AT133" s="1"/>
-    </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU133" s="1"/>
+    </row>
+    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7168,8 +7488,9 @@
       <c r="AR134" s="1"/>
       <c r="AS134" s="1"/>
       <c r="AT134" s="1"/>
-    </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU134" s="1"/>
+    </row>
+    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7216,8 +7537,9 @@
       <c r="AR135" s="1"/>
       <c r="AS135" s="1"/>
       <c r="AT135" s="1"/>
-    </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU135" s="1"/>
+    </row>
+    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7264,8 +7586,9 @@
       <c r="AR136" s="1"/>
       <c r="AS136" s="1"/>
       <c r="AT136" s="1"/>
-    </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU136" s="1"/>
+    </row>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7312,8 +7635,9 @@
       <c r="AR137" s="1"/>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
-    </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU137" s="1"/>
+    </row>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7360,8 +7684,9 @@
       <c r="AR138" s="1"/>
       <c r="AS138" s="1"/>
       <c r="AT138" s="1"/>
-    </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU138" s="1"/>
+    </row>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7408,8 +7733,9 @@
       <c r="AR139" s="1"/>
       <c r="AS139" s="1"/>
       <c r="AT139" s="1"/>
-    </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU139" s="1"/>
+    </row>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7456,8 +7782,9 @@
       <c r="AR140" s="1"/>
       <c r="AS140" s="1"/>
       <c r="AT140" s="1"/>
-    </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU140" s="1"/>
+    </row>
+    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7504,8 +7831,9 @@
       <c r="AR141" s="1"/>
       <c r="AS141" s="1"/>
       <c r="AT141" s="1"/>
-    </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU141" s="1"/>
+    </row>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7552,8 +7880,9 @@
       <c r="AR142" s="1"/>
       <c r="AS142" s="1"/>
       <c r="AT142" s="1"/>
-    </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU142" s="1"/>
+    </row>
+    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7600,8 +7929,9 @@
       <c r="AR143" s="1"/>
       <c r="AS143" s="1"/>
       <c r="AT143" s="1"/>
-    </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU143" s="1"/>
+    </row>
+    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7648,8 +7978,9 @@
       <c r="AR144" s="1"/>
       <c r="AS144" s="1"/>
       <c r="AT144" s="1"/>
-    </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU144" s="1"/>
+    </row>
+    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7696,8 +8027,9 @@
       <c r="AR145" s="1"/>
       <c r="AS145" s="1"/>
       <c r="AT145" s="1"/>
-    </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU145" s="1"/>
+    </row>
+    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7744,8 +8076,9 @@
       <c r="AR146" s="1"/>
       <c r="AS146" s="1"/>
       <c r="AT146" s="1"/>
-    </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU146" s="1"/>
+    </row>
+    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7792,8 +8125,9 @@
       <c r="AR147" s="1"/>
       <c r="AS147" s="1"/>
       <c r="AT147" s="1"/>
-    </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU147" s="1"/>
+    </row>
+    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7840,8 +8174,9 @@
       <c r="AR148" s="1"/>
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
-    </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU148" s="1"/>
+    </row>
+    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7888,8 +8223,9 @@
       <c r="AR149" s="1"/>
       <c r="AS149" s="1"/>
       <c r="AT149" s="1"/>
-    </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU149" s="1"/>
+    </row>
+    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7936,8 +8272,9 @@
       <c r="AR150" s="1"/>
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
-    </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU150" s="1"/>
+    </row>
+    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7984,8 +8321,9 @@
       <c r="AR151" s="1"/>
       <c r="AS151" s="1"/>
       <c r="AT151" s="1"/>
-    </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU151" s="1"/>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8032,8 +8370,9 @@
       <c r="AR152" s="1"/>
       <c r="AS152" s="1"/>
       <c r="AT152" s="1"/>
-    </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU152" s="1"/>
+    </row>
+    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8080,8 +8419,9 @@
       <c r="AR153" s="1"/>
       <c r="AS153" s="1"/>
       <c r="AT153" s="1"/>
-    </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU153" s="1"/>
+    </row>
+    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8128,8 +8468,9 @@
       <c r="AR154" s="1"/>
       <c r="AS154" s="1"/>
       <c r="AT154" s="1"/>
-    </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU154" s="1"/>
+    </row>
+    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8176,8 +8517,9 @@
       <c r="AR155" s="1"/>
       <c r="AS155" s="1"/>
       <c r="AT155" s="1"/>
-    </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU155" s="1"/>
+    </row>
+    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8224,8 +8566,9 @@
       <c r="AR156" s="1"/>
       <c r="AS156" s="1"/>
       <c r="AT156" s="1"/>
-    </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU156" s="1"/>
+    </row>
+    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8272,8 +8615,9 @@
       <c r="AR157" s="1"/>
       <c r="AS157" s="1"/>
       <c r="AT157" s="1"/>
-    </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU157" s="1"/>
+    </row>
+    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8320,8 +8664,9 @@
       <c r="AR158" s="1"/>
       <c r="AS158" s="1"/>
       <c r="AT158" s="1"/>
-    </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU158" s="1"/>
+    </row>
+    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8368,8 +8713,9 @@
       <c r="AR159" s="1"/>
       <c r="AS159" s="1"/>
       <c r="AT159" s="1"/>
-    </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU159" s="1"/>
+    </row>
+    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8416,8 +8762,9 @@
       <c r="AR160" s="1"/>
       <c r="AS160" s="1"/>
       <c r="AT160" s="1"/>
-    </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU160" s="1"/>
+    </row>
+    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8464,8 +8811,9 @@
       <c r="AR161" s="1"/>
       <c r="AS161" s="1"/>
       <c r="AT161" s="1"/>
-    </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU161" s="1"/>
+    </row>
+    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8512,8 +8860,9 @@
       <c r="AR162" s="1"/>
       <c r="AS162" s="1"/>
       <c r="AT162" s="1"/>
-    </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU162" s="1"/>
+    </row>
+    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8560,8 +8909,9 @@
       <c r="AR163" s="1"/>
       <c r="AS163" s="1"/>
       <c r="AT163" s="1"/>
-    </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU163" s="1"/>
+    </row>
+    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8608,8 +8958,9 @@
       <c r="AR164" s="1"/>
       <c r="AS164" s="1"/>
       <c r="AT164" s="1"/>
-    </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU164" s="1"/>
+    </row>
+    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8656,8 +9007,9 @@
       <c r="AR165" s="1"/>
       <c r="AS165" s="1"/>
       <c r="AT165" s="1"/>
-    </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU165" s="1"/>
+    </row>
+    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8704,8 +9056,9 @@
       <c r="AR166" s="1"/>
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
-    </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU166" s="1"/>
+    </row>
+    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8752,8 +9105,9 @@
       <c r="AR167" s="1"/>
       <c r="AS167" s="1"/>
       <c r="AT167" s="1"/>
-    </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU167" s="1"/>
+    </row>
+    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8800,8 +9154,9 @@
       <c r="AR168" s="1"/>
       <c r="AS168" s="1"/>
       <c r="AT168" s="1"/>
-    </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU168" s="1"/>
+    </row>
+    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8848,8 +9203,9 @@
       <c r="AR169" s="1"/>
       <c r="AS169" s="1"/>
       <c r="AT169" s="1"/>
-    </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU169" s="1"/>
+    </row>
+    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8896,8 +9252,9 @@
       <c r="AR170" s="1"/>
       <c r="AS170" s="1"/>
       <c r="AT170" s="1"/>
-    </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU170" s="1"/>
+    </row>
+    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8944,8 +9301,9 @@
       <c r="AR171" s="1"/>
       <c r="AS171" s="1"/>
       <c r="AT171" s="1"/>
-    </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU171" s="1"/>
+    </row>
+    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8992,8 +9350,9 @@
       <c r="AR172" s="1"/>
       <c r="AS172" s="1"/>
       <c r="AT172" s="1"/>
-    </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU172" s="1"/>
+    </row>
+    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9040,8 +9399,9 @@
       <c r="AR173" s="1"/>
       <c r="AS173" s="1"/>
       <c r="AT173" s="1"/>
-    </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU173" s="1"/>
+    </row>
+    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9088,8 +9448,9 @@
       <c r="AR174" s="1"/>
       <c r="AS174" s="1"/>
       <c r="AT174" s="1"/>
-    </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU174" s="1"/>
+    </row>
+    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9136,8 +9497,9 @@
       <c r="AR175" s="1"/>
       <c r="AS175" s="1"/>
       <c r="AT175" s="1"/>
-    </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU175" s="1"/>
+    </row>
+    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9184,8 +9546,9 @@
       <c r="AR176" s="1"/>
       <c r="AS176" s="1"/>
       <c r="AT176" s="1"/>
-    </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU176" s="1"/>
+    </row>
+    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9232,8 +9595,9 @@
       <c r="AR177" s="1"/>
       <c r="AS177" s="1"/>
       <c r="AT177" s="1"/>
-    </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU177" s="1"/>
+    </row>
+    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9280,8 +9644,9 @@
       <c r="AR178" s="1"/>
       <c r="AS178" s="1"/>
       <c r="AT178" s="1"/>
-    </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU178" s="1"/>
+    </row>
+    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9328,8 +9693,9 @@
       <c r="AR179" s="1"/>
       <c r="AS179" s="1"/>
       <c r="AT179" s="1"/>
-    </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU179" s="1"/>
+    </row>
+    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9376,8 +9742,9 @@
       <c r="AR180" s="1"/>
       <c r="AS180" s="1"/>
       <c r="AT180" s="1"/>
-    </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU180" s="1"/>
+    </row>
+    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9424,8 +9791,9 @@
       <c r="AR181" s="1"/>
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
-    </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU181" s="1"/>
+    </row>
+    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9472,8 +9840,9 @@
       <c r="AR182" s="1"/>
       <c r="AS182" s="1"/>
       <c r="AT182" s="1"/>
-    </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU182" s="1"/>
+    </row>
+    <row r="183" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9520,8 +9889,9 @@
       <c r="AR183" s="1"/>
       <c r="AS183" s="1"/>
       <c r="AT183" s="1"/>
-    </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU183" s="1"/>
+    </row>
+    <row r="184" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9568,8 +9938,9 @@
       <c r="AR184" s="1"/>
       <c r="AS184" s="1"/>
       <c r="AT184" s="1"/>
-    </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU184" s="1"/>
+    </row>
+    <row r="185" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9616,8 +9987,9 @@
       <c r="AR185" s="1"/>
       <c r="AS185" s="1"/>
       <c r="AT185" s="1"/>
-    </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU185" s="1"/>
+    </row>
+    <row r="186" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9664,8 +10036,9 @@
       <c r="AR186" s="1"/>
       <c r="AS186" s="1"/>
       <c r="AT186" s="1"/>
-    </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU186" s="1"/>
+    </row>
+    <row r="187" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -9712,8 +10085,9 @@
       <c r="AR187" s="1"/>
       <c r="AS187" s="1"/>
       <c r="AT187" s="1"/>
-    </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU187" s="1"/>
+    </row>
+    <row r="188" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9760,8 +10134,9 @@
       <c r="AR188" s="1"/>
       <c r="AS188" s="1"/>
       <c r="AT188" s="1"/>
-    </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU188" s="1"/>
+    </row>
+    <row r="189" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9808,8 +10183,9 @@
       <c r="AR189" s="1"/>
       <c r="AS189" s="1"/>
       <c r="AT189" s="1"/>
-    </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU189" s="1"/>
+    </row>
+    <row r="190" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9856,8 +10232,9 @@
       <c r="AR190" s="1"/>
       <c r="AS190" s="1"/>
       <c r="AT190" s="1"/>
-    </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU190" s="1"/>
+    </row>
+    <row r="191" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9904,8 +10281,9 @@
       <c r="AR191" s="1"/>
       <c r="AS191" s="1"/>
       <c r="AT191" s="1"/>
-    </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU191" s="1"/>
+    </row>
+    <row r="192" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9952,8 +10330,9 @@
       <c r="AR192" s="1"/>
       <c r="AS192" s="1"/>
       <c r="AT192" s="1"/>
-    </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU192" s="1"/>
+    </row>
+    <row r="193" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10000,8 +10379,9 @@
       <c r="AR193" s="1"/>
       <c r="AS193" s="1"/>
       <c r="AT193" s="1"/>
-    </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU193" s="1"/>
+    </row>
+    <row r="194" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10048,8 +10428,9 @@
       <c r="AR194" s="1"/>
       <c r="AS194" s="1"/>
       <c r="AT194" s="1"/>
-    </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU194" s="1"/>
+    </row>
+    <row r="195" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10096,8 +10477,9 @@
       <c r="AR195" s="1"/>
       <c r="AS195" s="1"/>
       <c r="AT195" s="1"/>
-    </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU195" s="1"/>
+    </row>
+    <row r="196" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10144,8 +10526,9 @@
       <c r="AR196" s="1"/>
       <c r="AS196" s="1"/>
       <c r="AT196" s="1"/>
-    </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU196" s="1"/>
+    </row>
+    <row r="197" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10192,8 +10575,9 @@
       <c r="AR197" s="1"/>
       <c r="AS197" s="1"/>
       <c r="AT197" s="1"/>
-    </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU197" s="1"/>
+    </row>
+    <row r="198" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10240,8 +10624,9 @@
       <c r="AR198" s="1"/>
       <c r="AS198" s="1"/>
       <c r="AT198" s="1"/>
-    </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU198" s="1"/>
+    </row>
+    <row r="199" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10288,8 +10673,9 @@
       <c r="AR199" s="1"/>
       <c r="AS199" s="1"/>
       <c r="AT199" s="1"/>
-    </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU199" s="1"/>
+    </row>
+    <row r="200" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10336,8 +10722,9 @@
       <c r="AR200" s="1"/>
       <c r="AS200" s="1"/>
       <c r="AT200" s="1"/>
-    </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU200" s="1"/>
+    </row>
+    <row r="201" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10384,8 +10771,9 @@
       <c r="AR201" s="1"/>
       <c r="AS201" s="1"/>
       <c r="AT201" s="1"/>
-    </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU201" s="1"/>
+    </row>
+    <row r="202" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10432,8 +10820,9 @@
       <c r="AR202" s="1"/>
       <c r="AS202" s="1"/>
       <c r="AT202" s="1"/>
-    </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU202" s="1"/>
+    </row>
+    <row r="203" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10480,6 +10869,7 @@
       <c r="AR203" s="1"/>
       <c r="AS203" s="1"/>
       <c r="AT203" s="1"/>
+      <c r="AU203" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
   <si>
     <t>Jyx2Configs.Jyx2ConfigMap</t>
   </si>
@@ -153,9 +158,6 @@
     <t>04_kunlunxianjing</t>
   </si>
   <si>
-    <t>Leave2,POINTLIGHT</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -713,9 +715,6 @@
     <t>82_meizhuangdilao</t>
   </si>
   <si>
-    <t>Leave2</t>
-  </si>
-  <si>
     <t>圣堂</t>
   </si>
   <si>
@@ -738,18 +737,32 @@
   <si>
     <t>WORLDMAP</t>
   </si>
+  <si>
+    <t>POINTLIGHT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave2,POINTLIGHT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTLIGHT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -760,19 +773,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -781,358 +794,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1140,263 +827,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,65 +859,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1801,35 +1202,35 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.3716814159292" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1302,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1945,7 +1346,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1989,7 +1390,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2033,7 +1434,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2077,7 +1478,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2100,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2123,15 +1524,15 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="3">
         <v>1000</v>
@@ -2146,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2169,15 +1570,15 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="3">
         <v>1000</v>
@@ -2213,15 +1614,15 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="3">
         <v>1000</v>
@@ -2236,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2259,15 +1660,15 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="3">
         <v>1000</v>
@@ -2303,15 +1704,15 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="3">
         <v>1000</v>
@@ -2347,15 +1748,15 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="3">
         <v>1000</v>
@@ -2370,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2393,15 +1794,15 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="3">
         <v>1000</v>
@@ -2437,15 +1838,15 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="3">
         <v>13</v>
@@ -2459,7 +1860,9 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2481,15 +1884,15 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
@@ -2525,15 +1928,15 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="3">
         <v>15</v>
@@ -2548,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2571,15 +1974,15 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D19" s="3">
         <v>14</v>
@@ -2593,7 +1996,9 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2615,15 +2020,15 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D20" s="3">
         <v>1000</v>
@@ -2659,15 +2064,15 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D21" s="3">
         <v>1000</v>
@@ -2703,15 +2108,15 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D22" s="3">
         <v>1000</v>
@@ -2726,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2749,15 +2154,15 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D23" s="3">
         <v>1000</v>
@@ -2793,15 +2198,15 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D24" s="3">
         <v>1000</v>
@@ -2837,15 +2242,15 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D25" s="3">
         <v>1000</v>
@@ -2860,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2883,15 +2288,15 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="3">
         <v>1000</v>
@@ -2927,15 +2332,15 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="3">
         <v>1000</v>
@@ -2971,15 +2376,15 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="3">
         <v>1000</v>
@@ -3015,15 +2420,15 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D29" s="3">
         <v>1000</v>
@@ -3059,15 +2464,15 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D30" s="3">
         <v>1000</v>
@@ -3103,15 +2508,15 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D31" s="3">
         <v>1000</v>
@@ -3147,15 +2552,15 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="3">
         <v>1000</v>
@@ -3191,15 +2596,15 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D33" s="3">
         <v>1000</v>
@@ -3235,15 +2640,15 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>1000</v>
@@ -3279,15 +2684,15 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D35" s="3">
         <v>1000</v>
@@ -3323,15 +2728,15 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D36" s="3">
         <v>1000</v>
@@ -3367,15 +2772,15 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D37" s="3">
         <v>1000</v>
@@ -3411,15 +2816,15 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="3">
         <v>1000</v>
@@ -3455,15 +2860,15 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D39" s="3">
         <v>1000</v>
@@ -3499,15 +2904,15 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D40" s="3">
         <v>1000</v>
@@ -3543,15 +2948,15 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D41" s="3">
         <v>1000</v>
@@ -3587,15 +2992,15 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D42" s="3">
         <v>1000</v>
@@ -3631,15 +3036,15 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D43" s="3">
         <v>1000</v>
@@ -3675,15 +3080,15 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D44" s="3">
         <v>1000</v>
@@ -3719,15 +3124,15 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D45" s="3">
         <v>1000</v>
@@ -3742,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -3765,15 +3170,15 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D46" s="3">
         <v>1000</v>
@@ -3788,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -3811,15 +3216,15 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D47" s="3">
         <v>1000</v>
@@ -3855,15 +3260,15 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D48" s="3">
         <v>1000</v>
@@ -3899,15 +3304,15 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D49" s="3">
         <v>1000</v>
@@ -3943,15 +3348,15 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D50" s="3">
         <v>1000</v>
@@ -3966,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -3989,15 +3394,15 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D51" s="3">
         <v>1000</v>
@@ -4033,15 +3438,15 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D52" s="3">
         <v>1000</v>
@@ -4077,15 +3482,15 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D53" s="3">
         <v>1000</v>
@@ -4121,15 +3526,15 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D54" s="3">
         <v>1000</v>
@@ -4165,15 +3570,15 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D55" s="3">
         <v>1000</v>
@@ -4209,15 +3614,15 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D56" s="3">
         <v>1000</v>
@@ -4253,15 +3658,15 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D57" s="3">
         <v>1000</v>
@@ -4297,15 +3702,15 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D58" s="3">
         <v>1000</v>
@@ -4341,15 +3746,15 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D59" s="3">
         <v>82</v>
@@ -4363,7 +3768,9 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4385,15 +3792,15 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D60" s="3">
         <v>1000</v>
@@ -4429,15 +3836,15 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D61" s="3">
         <v>1000</v>
@@ -4473,15 +3880,15 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D62" s="3">
         <v>1000</v>
@@ -4517,15 +3924,15 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D63" s="3">
         <v>1000</v>
@@ -4561,15 +3968,15 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D64" s="3">
         <v>1000</v>
@@ -4605,15 +4012,15 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="D65" s="3">
         <v>1000</v>
@@ -4649,15 +4056,15 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D66" s="3">
         <v>1000</v>
@@ -4693,15 +4100,15 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="D67" s="3">
         <v>1000</v>
@@ -4737,15 +4144,15 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D68" s="3">
         <v>1000</v>
@@ -4781,15 +4188,15 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D69" s="3">
         <v>1000</v>
@@ -4804,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -4827,15 +4234,15 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D70" s="3">
         <v>1000</v>
@@ -4850,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -4873,15 +4280,15 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
@@ -4896,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4919,15 +4326,15 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="D72" s="3">
         <v>1000</v>
@@ -4963,15 +4370,15 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="D73" s="3">
         <v>1000</v>
@@ -5007,15 +4414,15 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D74" s="3">
         <v>1000</v>
@@ -5030,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -5053,15 +4460,15 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D75" s="3">
         <v>1000</v>
@@ -5097,15 +4504,15 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D76" s="3">
         <v>1000</v>
@@ -5120,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -5143,15 +4550,15 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D77" s="3">
         <v>1000</v>
@@ -5187,15 +4594,15 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D78" s="3">
         <v>1000</v>
@@ -5231,15 +4638,15 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D79" s="3">
         <v>1000</v>
@@ -5275,15 +4682,15 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D80" s="3">
         <v>83</v>
@@ -5297,7 +4704,9 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -5319,15 +4728,15 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D81" s="3">
         <v>1000</v>
@@ -5363,15 +4772,15 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D82" s="3">
         <v>1000</v>
@@ -5407,15 +4816,15 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D83" s="3">
         <v>1000</v>
@@ -5451,15 +4860,15 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D84" s="3">
         <v>1000</v>
@@ -5495,15 +4904,15 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D85" s="3">
         <v>1000</v>
@@ -5539,15 +4948,15 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D86" s="3">
         <v>55</v>
@@ -5561,9 +4970,7 @@
       <c r="G86" s="3">
         <v>1</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -5585,15 +4992,15 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D87" s="3">
         <v>76</v>
@@ -5608,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -5631,15 +5038,15 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>1000</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -5654,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5696,7 +5103,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5745,7 +5152,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5794,7 +5201,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5843,7 +5250,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5892,7 +5299,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5941,7 +5348,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5990,7 +5397,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6039,7 +5446,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6088,7 +5495,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6137,7 +5544,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6186,7 +5593,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6235,7 +5642,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6284,7 +5691,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6333,7 +5740,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6382,7 +5789,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6431,7 +5838,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6480,7 +5887,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6529,7 +5936,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6578,7 +5985,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6627,7 +6034,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6676,7 +6083,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6725,7 +6132,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6774,7 +6181,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6823,7 +6230,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6872,7 +6279,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6921,7 +6328,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6970,7 +6377,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -7019,7 +6426,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7068,7 +6475,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7117,7 +6524,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7166,7 +6573,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7215,7 +6622,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7264,7 +6671,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7313,7 +6720,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7362,7 +6769,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7411,7 +6818,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7460,7 +6867,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7509,7 +6916,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7558,7 +6965,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7607,7 +7014,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7656,7 +7063,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7705,7 +7112,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7754,7 +7161,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7803,7 +7210,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7852,7 +7259,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7901,7 +7308,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7950,7 +7357,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7999,7 +7406,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -8048,7 +7455,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -8097,7 +7504,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -8146,7 +7553,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -8195,7 +7602,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -8244,7 +7651,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -8293,7 +7700,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8342,7 +7749,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -8391,7 +7798,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -8440,7 +7847,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8489,7 +7896,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -8538,7 +7945,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8587,7 +7994,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8636,7 +8043,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8685,7 +8092,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8734,7 +8141,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8783,7 +8190,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8832,7 +8239,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8881,7 +8288,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8930,7 +8337,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8979,7 +8386,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -9028,7 +8435,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -9077,7 +8484,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -9126,7 +8533,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -9175,7 +8582,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -9224,7 +8631,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -9273,7 +8680,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -9322,7 +8729,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -9371,7 +8778,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -9420,7 +8827,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9469,7 +8876,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9518,7 +8925,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9567,7 +8974,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9616,7 +9023,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9665,7 +9072,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9714,7 +9121,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9763,7 +9170,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9812,7 +9219,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9861,7 +9268,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9910,7 +9317,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9959,7 +9366,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -10008,7 +9415,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -10057,7 +9464,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -10106,7 +9513,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -10155,7 +9562,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -10204,7 +9611,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -10253,7 +9660,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -10302,7 +9709,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -10351,7 +9758,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -10400,7 +9807,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -10449,7 +9856,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -10498,7 +9905,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -10547,7 +9954,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10596,7 +10003,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10645,7 +10052,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10694,7 +10101,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10743,7 +10150,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10792,7 +10199,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10841,7 +10248,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47">
+    <row r="194" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10890,7 +10297,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47">
+    <row r="195" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10939,7 +10346,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10988,7 +10395,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -11037,7 +10444,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47">
+    <row r="198" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -11086,7 +10493,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47">
+    <row r="199" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -11135,7 +10542,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -11184,7 +10591,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -11233,7 +10640,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -11282,7 +10689,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -11332,8 +10739,8 @@
       <c r="AU203" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -207,9 +207,6 @@
     <t>09_chengkunju</t>
   </si>
   <si>
-    <t>山洞</t>
-  </si>
-  <si>
     <t>10_shandong</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>明教分舵</t>
   </si>
   <si>
-    <t>12_mingjiaofentuo</t>
-  </si>
-  <si>
     <t>明教地道</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>百花谷</t>
   </si>
   <si>
-    <t>20_baihuogu</t>
-  </si>
-  <si>
     <t>黑龙潭</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>武道大会</t>
   </si>
   <si>
-    <t>25_wudongdahui</t>
-  </si>
-  <si>
     <t>黑木崖</t>
   </si>
   <si>
@@ -355,9 +343,6 @@
   </si>
   <si>
     <t>崆峒派</t>
-  </si>
-  <si>
-    <t>34_kongdongpai</t>
   </si>
   <si>
     <t>星宿海</t>
@@ -447,9 +432,6 @@
     </r>
   </si>
   <si>
-    <t>45_chengyinggu</t>
-  </si>
-  <si>
     <t>金蛇山洞</t>
   </si>
   <si>
@@ -485,9 +467,6 @@
     </r>
   </si>
   <si>
-    <t>50_yanjingju</t>
-  </si>
-  <si>
     <t>丐帮</t>
   </si>
   <si>
@@ -677,9 +656,6 @@
     <t>77_wanedao</t>
   </si>
   <si>
-    <t>浡泥岛</t>
-  </si>
-  <si>
     <t>78_bonidao</t>
   </si>
   <si>
@@ -757,12 +733,44 @@
     <t>Leave2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>50_yanjiju</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>45_chengyingju</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_mingjiaofenduo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤泥岛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>34_kongtongpai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_baihuagu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_wudaodahui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛山洞</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -810,6 +818,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -845,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +873,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1211,7 +1227,7 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1501,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1752,11 +1768,11 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="3">
         <v>1000</v>
@@ -1799,10 +1815,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="3">
         <v>1000</v>
@@ -1843,10 +1859,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D16" s="3">
         <v>13</v>
@@ -1861,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1889,10 +1905,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
@@ -1933,10 +1949,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3">
         <v>15</v>
@@ -1951,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1979,10 +1995,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3">
         <v>14</v>
@@ -1997,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2025,10 +2041,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3">
         <v>1000</v>
@@ -2069,10 +2085,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>1000</v>
@@ -2113,10 +2129,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3">
         <v>1000</v>
@@ -2159,10 +2175,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3">
         <v>1000</v>
@@ -2203,10 +2219,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="D24" s="3">
         <v>1000</v>
@@ -2247,10 +2263,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3">
         <v>1000</v>
@@ -2265,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2293,10 +2309,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3">
         <v>1000</v>
@@ -2337,10 +2353,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3">
         <v>1000</v>
@@ -2381,10 +2397,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="3">
         <v>1000</v>
@@ -2425,10 +2441,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="D29" s="3">
         <v>1000</v>
@@ -2469,10 +2485,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3">
         <v>1000</v>
@@ -2513,10 +2529,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3">
         <v>1000</v>
@@ -2557,10 +2573,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" s="3">
         <v>1000</v>
@@ -2601,10 +2617,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3">
         <v>1000</v>
@@ -2645,10 +2661,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3">
         <v>1000</v>
@@ -2689,10 +2705,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3">
         <v>1000</v>
@@ -2733,10 +2749,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" s="3">
         <v>1000</v>
@@ -2777,10 +2793,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37" s="3">
         <v>1000</v>
@@ -2821,10 +2837,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="D38" s="3">
         <v>1000</v>
@@ -2865,10 +2881,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3">
         <v>1000</v>
@@ -2909,10 +2925,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D40" s="3">
         <v>1000</v>
@@ -2953,10 +2969,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D41" s="3">
         <v>1000</v>
@@ -2997,10 +3013,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D42" s="3">
         <v>1000</v>
@@ -3041,10 +3057,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3">
         <v>1000</v>
@@ -3085,10 +3101,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D44" s="3">
         <v>1000</v>
@@ -3129,10 +3145,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D45" s="3">
         <v>1000</v>
@@ -3175,10 +3191,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3">
         <v>1000</v>
@@ -3221,10 +3237,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D47" s="3">
         <v>1000</v>
@@ -3265,10 +3281,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D48" s="3">
         <v>1000</v>
@@ -3309,10 +3325,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D49" s="3">
         <v>1000</v>
@@ -3353,10 +3369,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D50" s="3">
         <v>1000</v>
@@ -3399,10 +3415,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D51" s="3">
         <v>1000</v>
@@ -3443,10 +3459,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D52" s="3">
         <v>1000</v>
@@ -3487,10 +3503,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D53" s="3">
         <v>1000</v>
@@ -3531,10 +3547,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="D54" s="3">
         <v>1000</v>
@@ -3575,10 +3591,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D55" s="3">
         <v>1000</v>
@@ -3619,10 +3635,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D56" s="3">
         <v>1000</v>
@@ -3663,10 +3679,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D57" s="3">
         <v>1000</v>
@@ -3707,10 +3723,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D58" s="3">
         <v>1000</v>
@@ -3751,10 +3767,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D59" s="3">
         <v>82</v>
@@ -3769,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -3797,10 +3813,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D60" s="3">
         <v>1000</v>
@@ -3841,10 +3857,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D61" s="3">
         <v>1000</v>
@@ -3885,10 +3901,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D62" s="3">
         <v>1000</v>
@@ -3929,10 +3945,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D63" s="3">
         <v>1000</v>
@@ -3973,10 +3989,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D64" s="3">
         <v>1000</v>
@@ -4017,10 +4033,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D65" s="3">
         <v>1000</v>
@@ -4061,10 +4077,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D66" s="3">
         <v>1000</v>
@@ -4105,10 +4121,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D67" s="3">
         <v>1000</v>
@@ -4149,10 +4165,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D68" s="3">
         <v>1000</v>
@@ -4193,10 +4209,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D69" s="3">
         <v>1000</v>
@@ -4239,10 +4255,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D70" s="3">
         <v>1000</v>
@@ -4285,10 +4301,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
@@ -4303,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4331,10 +4347,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D72" s="3">
         <v>1000</v>
@@ -4375,10 +4391,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3">
         <v>1000</v>
@@ -4419,10 +4435,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D74" s="3">
         <v>1000</v>
@@ -4437,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -4465,10 +4481,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D75" s="3">
         <v>1000</v>
@@ -4509,10 +4525,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D76" s="3">
         <v>1000</v>
@@ -4555,10 +4571,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D77" s="3">
         <v>1000</v>
@@ -4599,10 +4615,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D78" s="3">
         <v>1000</v>
@@ -4643,10 +4659,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D79" s="3">
         <v>1000</v>
@@ -4687,10 +4703,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D80" s="3">
         <v>83</v>
@@ -4705,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -4733,10 +4749,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D81" s="3">
         <v>1000</v>
@@ -4776,11 +4792,11 @@
       <c r="A82" s="3">
         <v>78</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>176</v>
+      <c r="B82" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D82" s="3">
         <v>1000</v>
@@ -4821,10 +4837,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D83" s="3">
         <v>1000</v>
@@ -4865,10 +4881,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D84" s="3">
         <v>1000</v>
@@ -4909,10 +4925,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D85" s="3">
         <v>1000</v>
@@ -4953,10 +4969,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D86" s="3">
         <v>55</v>
@@ -4997,10 +5013,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D87" s="3">
         <v>76</v>
@@ -5015,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -5043,16 +5059,16 @@
         <v>1000</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
       </c>
       <c r="E88" s="3">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="F88" s="3">
         <v>-1</v>
@@ -5061,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>

--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="202">
   <si>
     <t>Jyx2Configs.Jyx2ConfigMap</t>
   </si>
@@ -81,7 +76,7 @@
     </r>
   </si>
   <si>
-    <t>跳转场景</t>
+    <t>跳转场景（触发器:地图代号）</t>
   </si>
   <si>
     <r>
@@ -134,6 +129,9 @@
     <t>00_hufeiju</t>
   </si>
   <si>
+    <t>Leave:1000</t>
+  </si>
+  <si>
     <t>河洛客栈</t>
   </si>
   <si>
@@ -156,6 +154,12 @@
   </si>
   <si>
     <t>04_kunlunxianjing</t>
+  </si>
+  <si>
+    <t>Leave:67</t>
+  </si>
+  <si>
+    <t>POINTLIGHT</t>
   </si>
   <si>
     <r>
@@ -172,9 +176,6 @@
     <t>05_shandong</t>
   </si>
   <si>
-    <t>POINTLIGHT</t>
-  </si>
-  <si>
     <t>北丑居</t>
   </si>
   <si>
@@ -207,6 +208,9 @@
     <t>09_chengkunju</t>
   </si>
   <si>
+    <t>蜘蛛山洞</t>
+  </si>
+  <si>
     <t>10_shandong</t>
   </si>
   <si>
@@ -219,24 +223,39 @@
     <t>明教分舵</t>
   </si>
   <si>
+    <t>12_mingjiaofenduo</t>
+  </si>
+  <si>
+    <t>Leave:1000,Leave2:13</t>
+  </si>
+  <si>
     <t>明教地道</t>
   </si>
   <si>
     <t>13_mingjiaodidao</t>
   </si>
   <si>
+    <t>Leave:12</t>
+  </si>
+  <si>
     <t>高昌迷宫</t>
   </si>
   <si>
     <t>14_gaochangmigong</t>
   </si>
   <si>
+    <t>Leave:15</t>
+  </si>
+  <si>
     <t>沙漠废墟</t>
   </si>
   <si>
     <t>15_shamofeixu</t>
   </si>
   <si>
+    <t>Leave:1000,Leave2:14</t>
+  </si>
+  <si>
     <t>金轮寺</t>
   </si>
   <si>
@@ -264,6 +283,9 @@
     <t>百花谷</t>
   </si>
   <si>
+    <t>20_baihuagu</t>
+  </si>
+  <si>
     <t>黑龙潭</t>
   </si>
   <si>
@@ -294,6 +316,9 @@
     <t>武道大会</t>
   </si>
   <si>
+    <t>25_wudaodahui</t>
+  </si>
+  <si>
     <t>黑木崖</t>
   </si>
   <si>
@@ -343,6 +368,9 @@
   </si>
   <si>
     <t>崆峒派</t>
+  </si>
+  <si>
+    <t>34_kongtongpai</t>
   </si>
   <si>
     <t>星宿海</t>
@@ -432,6 +460,9 @@
     </r>
   </si>
   <si>
+    <t>45_chengyingju</t>
+  </si>
+  <si>
     <t>金蛇山洞</t>
   </si>
   <si>
@@ -467,6 +498,9 @@
     </r>
   </si>
   <si>
+    <t>50_yanjiju</t>
+  </si>
+  <si>
     <t>丐帮</t>
   </si>
   <si>
@@ -495,6 +529,9 @@
   </si>
   <si>
     <t>55_meizhuang</t>
+  </si>
+  <si>
+    <t>Leave:1000,Leave2:82</t>
   </si>
   <si>
     <t>福威镖局</t>
@@ -593,6 +630,9 @@
     <t>67_shandong</t>
   </si>
   <si>
+    <t>Leave:1000,Leave2:4</t>
+  </si>
+  <si>
     <t>昆仑派</t>
   </si>
   <si>
@@ -650,10 +690,16 @@
     <t>76_pilitang</t>
   </si>
   <si>
+    <t>Leave:1000,Leave2:83</t>
+  </si>
+  <si>
     <t>万鳄岛</t>
   </si>
   <si>
     <t>77_wanedao</t>
+  </si>
+  <si>
+    <t>渤泥岛</t>
   </si>
   <si>
     <t>78_bonidao</t>
@@ -691,10 +737,16 @@
     <t>82_meizhuangdilao</t>
   </si>
   <si>
+    <t>Leave:55</t>
+  </si>
+  <si>
     <t>圣堂</t>
   </si>
   <si>
     <t>83_shengtang</t>
+  </si>
+  <si>
+    <t>Leave:76</t>
   </si>
   <si>
     <r>
@@ -713,64 +765,18 @@
   <si>
     <t>WORLDMAP</t>
   </si>
-  <si>
-    <t>POINTLIGHT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave2,POINTLIGHT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>POINTLIGHT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>50_yanjiju</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>45_chengyingju</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12_mingjiaofenduo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>渤泥岛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>34_kongtongpai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_baihuagu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25_wudaodahui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蛛山洞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -781,19 +787,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -809,32 +815,351 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -842,25 +1167,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,23 +1440,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1218,35 +1830,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.3716814159292" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.4159292035398" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1318,7 +1931,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1328,8 +1941,8 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
-        <v>1000</v>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>-1</v>
@@ -1362,18 +1975,18 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -1406,18 +2019,18 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>-1</v>
@@ -1450,18 +2063,18 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1000</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -1494,18 +2107,18 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3">
-        <v>67</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="3">
         <v>8</v>
@@ -1517,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1540,18 +2153,18 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1000</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="3">
         <v>12</v>
@@ -1586,18 +2199,18 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>11</v>
@@ -1630,18 +2243,18 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1000</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="3">
         <v>12</v>
@@ -1676,18 +2289,18 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1000</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -1720,18 +2333,18 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1000</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -1764,18 +2377,18 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>195</v>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1000</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
@@ -1810,18 +2423,18 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1000</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
@@ -1854,18 +2467,18 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="3">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -1876,9 +2489,7 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1900,18 +2511,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="3">
         <v>12</v>
@@ -1944,18 +2555,18 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="3">
         <v>12</v>
@@ -1967,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1990,18 +2601,18 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E19" s="3">
         <v>12</v>
@@ -2012,9 +2623,7 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2036,18 +2645,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1000</v>
+        <v>57</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
@@ -2080,18 +2689,18 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1000</v>
+        <v>59</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -2124,18 +2733,18 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1000</v>
+        <v>61</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E22" s="3">
         <v>12</v>
@@ -2170,18 +2779,18 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1000</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="3">
         <v>22</v>
@@ -2214,18 +2823,18 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1000</v>
+        <v>65</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="3">
         <v>13</v>
@@ -2258,18 +2867,18 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1000</v>
+        <v>67</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="3">
         <v>8</v>
@@ -2281,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2304,18 +2913,18 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1000</v>
+        <v>70</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -2348,18 +2957,18 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1000</v>
+        <v>72</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -2392,18 +3001,18 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1000</v>
+        <v>74</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -2436,18 +3045,18 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1000</v>
+        <v>76</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E29" s="3">
         <v>15</v>
@@ -2480,18 +3089,18 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1000</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -2524,18 +3133,18 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1000</v>
+        <v>80</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -2568,18 +3177,18 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1000</v>
+        <v>82</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="3">
         <v>20</v>
@@ -2612,18 +3221,18 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1000</v>
+        <v>84</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E33" s="3">
         <v>22</v>
@@ -2656,18 +3265,18 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1000</v>
+        <v>86</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -2700,18 +3309,18 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1000</v>
+        <v>88</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E35" s="3">
         <v>21</v>
@@ -2744,18 +3353,18 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1000</v>
+        <v>90</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -2788,18 +3397,18 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1000</v>
+        <v>92</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E37" s="3">
         <v>23</v>
@@ -2832,18 +3441,18 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1000</v>
+        <v>94</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -2876,18 +3485,18 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1000</v>
+        <v>96</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E39" s="3">
         <v>4</v>
@@ -2920,18 +3529,18 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1000</v>
+        <v>98</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -2964,18 +3573,18 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -3008,18 +3617,18 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1000</v>
+        <v>102</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -3052,18 +3661,18 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1000</v>
+        <v>104</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
@@ -3096,18 +3705,18 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1000</v>
+        <v>106</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -3140,18 +3749,18 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1000</v>
+        <v>108</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E45" s="3">
         <v>12</v>
@@ -3186,18 +3795,18 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1000</v>
+        <v>110</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E46" s="3">
         <v>12</v>
@@ -3232,18 +3841,18 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1000</v>
+        <v>112</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E47" s="3">
         <v>22</v>
@@ -3276,18 +3885,18 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1000</v>
+        <v>114</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -3320,18 +3929,18 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1000</v>
+        <v>116</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
@@ -3364,18 +3973,18 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1000</v>
+        <v>118</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E50" s="3">
         <v>12</v>
@@ -3410,18 +4019,18 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1000</v>
+        <v>120</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
@@ -3454,18 +4063,18 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1000</v>
+        <v>122</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -3498,18 +4107,18 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1000</v>
+        <v>124</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -3542,18 +4151,18 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1000</v>
+        <v>126</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -3586,18 +4195,18 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1000</v>
+        <v>128</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -3630,18 +4239,18 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1000</v>
+        <v>130</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -3674,18 +4283,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1000</v>
+        <v>132</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E57" s="3">
         <v>-1</v>
@@ -3718,18 +4327,18 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1000</v>
+        <v>134</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E58" s="3">
         <v>-1</v>
@@ -3762,18 +4371,18 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="3">
-        <v>82</v>
+        <v>136</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -3784,9 +4393,7 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3808,18 +4415,18 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1000</v>
+        <v>139</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E60" s="3">
         <v>9</v>
@@ -3852,18 +4459,18 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1000</v>
+        <v>141</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E61" s="3">
         <v>-1</v>
@@ -3896,18 +4503,18 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1000</v>
+        <v>143</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E62" s="3">
         <v>-1</v>
@@ -3940,18 +4547,18 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1000</v>
+        <v>145</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E63" s="3">
         <v>-1</v>
@@ -3984,18 +4591,18 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1000</v>
+        <v>147</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
@@ -4028,18 +4635,18 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1000</v>
+        <v>149</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -4072,18 +4679,18 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1000</v>
+        <v>151</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E66" s="3">
         <v>-1</v>
@@ -4116,18 +4723,18 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1000</v>
+        <v>153</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E67" s="3">
         <v>-1</v>
@@ -4160,18 +4767,18 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1000</v>
+        <v>155</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E68" s="3">
         <v>11</v>
@@ -4204,18 +4811,18 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28">
       <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1000</v>
+        <v>157</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E69" s="3">
         <v>12</v>
@@ -4250,18 +4857,18 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1000</v>
+        <v>159</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E70" s="3">
         <v>12</v>
@@ -4296,18 +4903,18 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28">
       <c r="A71" s="3">
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" s="3">
-        <v>4</v>
+        <v>161</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="E71" s="3">
         <v>12</v>
@@ -4319,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4342,18 +4949,18 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1000</v>
+        <v>164</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E72" s="3">
         <v>4</v>
@@ -4386,18 +4993,18 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28">
       <c r="A73" s="3">
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1000</v>
+        <v>166</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E73" s="3">
         <v>4</v>
@@ -4430,18 +5037,18 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1000</v>
+        <v>168</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E74" s="3">
         <v>-1</v>
@@ -4453,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -4476,18 +5083,18 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1000</v>
+        <v>171</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E75" s="3">
         <v>-1</v>
@@ -4520,18 +5127,18 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1000</v>
+        <v>173</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E76" s="3">
         <v>12</v>
@@ -4566,18 +5173,18 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1000</v>
+        <v>175</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E77" s="3">
         <v>-1</v>
@@ -4610,18 +5217,18 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1000</v>
+        <v>177</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E78" s="3">
         <v>12</v>
@@ -4654,18 +5261,18 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1000</v>
+        <v>179</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E79" s="3">
         <v>-1</v>
@@ -4698,18 +5305,18 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D80" s="3">
-        <v>83</v>
+        <v>181</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E80" s="3">
         <v>-1</v>
@@ -4720,9 +5327,7 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -4744,18 +5349,18 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1000</v>
+        <v>184</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E81" s="3">
         <v>-1</v>
@@ -4788,18 +5393,18 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>78</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>191</v>
+      <c r="B82" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1000</v>
+        <v>186</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E82" s="3">
         <v>-1</v>
@@ -4832,18 +5437,18 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1000</v>
+        <v>188</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E83" s="3">
         <v>12</v>
@@ -4876,18 +5481,18 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1000</v>
+        <v>190</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E84" s="3">
         <v>9</v>
@@ -4920,18 +5525,18 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1000</v>
+        <v>192</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E85" s="3">
         <v>16</v>
@@ -4964,18 +5569,18 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" s="3">
-        <v>55</v>
+        <v>194</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="E86" s="3">
         <v>12</v>
@@ -5008,18 +5613,18 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="3">
-        <v>76</v>
+        <v>197</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="E87" s="3">
         <v>17</v>
@@ -5031,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -5054,17 +5659,17 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:47">
       <c r="A88" s="3">
         <v>1000</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="3">
+        <v>200</v>
+      </c>
+      <c r="D88" s="6">
         <v>-1</v>
       </c>
       <c r="E88" s="3">
@@ -5077,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5119,7 +5724,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:47">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5168,7 +5773,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:47">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5217,7 +5822,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:47">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5266,7 +5871,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:47">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5315,7 +5920,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:47">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5364,7 +5969,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:47">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5413,7 +6018,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:47">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5462,7 +6067,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:47">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5511,7 +6116,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5560,7 +6165,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5609,7 +6214,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5658,7 +6263,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5707,7 +6312,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5756,7 +6361,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5805,7 +6410,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5854,7 +6459,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5903,7 +6508,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5952,7 +6557,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6001,7 +6606,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:47">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6050,7 +6655,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:47">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6099,7 +6704,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:47">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6148,7 +6753,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:47">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6197,7 +6802,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:47">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6246,7 +6851,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:47">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6295,7 +6900,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:47">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6344,7 +6949,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:47">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6393,7 +6998,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:47">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6442,7 +7047,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:47">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6491,7 +7096,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:47">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6540,7 +7145,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:47">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6589,7 +7194,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:47">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6638,7 +7243,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:47">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6687,7 +7292,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:47">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6736,7 +7341,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:47">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6785,7 +7390,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:47">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6834,7 +7439,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:47">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6883,7 +7488,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6932,7 +7537,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6981,7 +7586,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:47">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7030,7 +7635,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:47">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7079,7 +7684,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:47">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7128,7 +7733,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:47">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7177,7 +7782,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:47">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7226,7 +7831,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:47">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7275,7 +7880,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:47">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7324,7 +7929,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:47">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7373,7 +7978,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:47">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7422,7 +8027,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:47">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7471,7 +8076,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:47">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7520,7 +8125,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:47">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7569,7 +8174,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:47">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7618,7 +8223,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:47">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7667,7 +8272,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:47">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7716,7 +8321,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:47">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7765,7 +8370,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:47">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7814,7 +8419,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:47">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7863,7 +8468,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7912,7 +8517,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7961,7 +8566,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8010,7 +8615,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8059,7 +8664,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8108,7 +8713,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8157,7 +8762,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8206,7 +8811,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8255,7 +8860,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8304,7 +8909,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:47">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8353,7 +8958,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:47">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8402,7 +9007,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:47">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8451,7 +9056,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:47">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8500,7 +9105,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:47">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8549,7 +9154,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:47">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8598,7 +9203,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:47">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8647,7 +9252,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:47">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8696,7 +9301,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:47">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8745,7 +9350,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:47">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -8794,7 +9399,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:47">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -8843,7 +9448,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:47">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8892,7 +9497,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:47">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8941,7 +9546,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:47">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8990,7 +9595,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:47">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9039,7 +9644,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:47">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9088,7 +9693,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:47">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9137,7 +9742,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:47">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9186,7 +9791,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:47">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9235,7 +9840,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:47">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9284,7 +9889,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:47">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9333,7 +9938,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:47">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9382,7 +9987,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:47">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -9431,7 +10036,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:47">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9480,7 +10085,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:47">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9529,7 +10134,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:47">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9578,7 +10183,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:47">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9627,7 +10232,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:47">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9676,7 +10281,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:47">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9725,7 +10330,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:47">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -9774,7 +10379,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:47">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -9823,7 +10428,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:47">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -9872,7 +10477,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:47">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -9921,7 +10526,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:47">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9970,7 +10575,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:47">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10019,7 +10624,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:47">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10068,7 +10673,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:47">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10117,7 +10722,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:47">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10166,7 +10771,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:47">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10215,7 +10820,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:47">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10264,7 +10869,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:47">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10313,7 +10918,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:47">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10362,7 +10967,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:47">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10411,7 +11016,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:47">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -10460,7 +11065,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:47">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10509,7 +11114,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:47">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10558,7 +11163,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:47">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10607,7 +11212,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:47">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10656,7 +11261,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:47">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10705,7 +11310,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:47">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -10755,8 +11360,8 @@
       <c r="AU203" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63257F4-1F11-49E4-A420-F862FB0D7E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="3590" yWindow="840" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -760,23 +766,18 @@
     </r>
   </si>
   <si>
-    <t>0_BigMap_2</t>
-  </si>
-  <si>
     <t>WORLDMAP</t>
+  </si>
+  <si>
+    <t>1000_daditu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -787,19 +788,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -815,351 +816,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1167,263 +843,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,65 +877,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1830,36 +1220,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.87610619469027" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.3716814159292" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.4159292035398" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.1238938053097" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1238938053097" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:8">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1885,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1321,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1975,7 +1365,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2019,7 +1409,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2063,7 +1453,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2107,7 +1497,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2153,7 +1543,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2199,7 +1589,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2243,7 +1633,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2289,7 +1679,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2333,7 +1723,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2377,7 +1767,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2423,7 +1813,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2467,7 +1857,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2511,7 +1901,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2555,7 +1945,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2601,7 +1991,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2645,7 +2035,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2689,7 +2079,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2733,7 +2123,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2779,7 +2169,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2823,7 +2213,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2867,7 +2257,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2913,7 +2303,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2957,7 +2347,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -3001,7 +2391,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -3045,7 +2435,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -3089,7 +2479,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -3133,7 +2523,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -3177,7 +2567,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -3221,7 +2611,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -3265,7 +2655,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -3309,7 +2699,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -3353,7 +2743,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -3397,7 +2787,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -3441,7 +2831,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -3485,7 +2875,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -3529,7 +2919,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -3573,7 +2963,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -3617,7 +3007,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -3661,7 +3051,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -3705,7 +3095,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -3749,7 +3139,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3795,7 +3185,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3841,7 +3231,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3885,7 +3275,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -3929,7 +3319,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -3973,7 +3363,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -4019,7 +3409,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -4063,7 +3453,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -4107,7 +3497,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -4151,7 +3541,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -4195,7 +3585,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -4239,7 +3629,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -4283,7 +3673,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -4327,7 +3717,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -4371,7 +3761,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -4415,7 +3805,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -4459,7 +3849,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -4503,7 +3893,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -4547,7 +3937,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -4591,7 +3981,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -4635,7 +4025,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -4679,7 +4069,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -4723,7 +4113,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -4767,7 +4157,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -4811,7 +4201,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -4857,7 +4247,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -4903,7 +4293,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -4949,7 +4339,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -4993,7 +4383,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -5037,7 +4427,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -5083,7 +4473,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -5127,7 +4517,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -5173,7 +4563,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -5217,7 +4607,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -5261,7 +4651,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -5305,7 +4695,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -5349,7 +4739,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -5393,7 +4783,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -5437,7 +4827,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -5481,7 +4871,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -5525,7 +4915,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -5569,7 +4959,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -5613,7 +5003,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -5659,7 +5049,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1000</v>
       </c>
@@ -5667,7 +5057,7 @@
         <v>199</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D88" s="6">
         <v>-1</v>
@@ -5682,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5724,7 +5114,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5773,7 +5163,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5822,7 +5212,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5871,7 +5261,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5920,7 +5310,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5969,7 +5359,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6018,7 +5408,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6067,7 +5457,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6116,7 +5506,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6165,7 +5555,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6214,7 +5604,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6263,7 +5653,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6312,7 +5702,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6361,7 +5751,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6410,7 +5800,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6459,7 +5849,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6508,7 +5898,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6557,7 +5947,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6606,7 +5996,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6655,7 +6045,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6704,7 +6094,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6753,7 +6143,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6802,7 +6192,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6851,7 +6241,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6900,7 +6290,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6949,7 +6339,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6998,7 +6388,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -7047,7 +6437,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7096,7 +6486,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7145,7 +6535,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7194,7 +6584,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7243,7 +6633,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7292,7 +6682,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7341,7 +6731,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7390,7 +6780,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7439,7 +6829,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7488,7 +6878,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7537,7 +6927,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7586,7 +6976,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7635,7 +7025,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7684,7 +7074,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7733,7 +7123,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7782,7 +7172,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7831,7 +7221,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7880,7 +7270,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7929,7 +7319,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7978,7 +7368,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -8027,7 +7417,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -8076,7 +7466,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -8125,7 +7515,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -8174,7 +7564,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -8223,7 +7613,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -8272,7 +7662,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -8321,7 +7711,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -8370,7 +7760,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -8419,7 +7809,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -8468,7 +7858,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -8517,7 +7907,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -8566,7 +7956,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8615,7 +8005,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8664,7 +8054,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8713,7 +8103,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8762,7 +8152,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8811,7 +8201,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8860,7 +8250,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8909,7 +8299,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8958,7 +8348,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -9007,7 +8397,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -9056,7 +8446,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -9105,7 +8495,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -9154,7 +8544,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -9203,7 +8593,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -9252,7 +8642,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -9301,7 +8691,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -9350,7 +8740,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -9399,7 +8789,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -9448,7 +8838,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -9497,7 +8887,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9546,7 +8936,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9595,7 +8985,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9644,7 +9034,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9693,7 +9083,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9742,7 +9132,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9791,7 +9181,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9840,7 +9230,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9889,7 +9279,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9938,7 +9328,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9987,7 +9377,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -10036,7 +9426,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -10085,7 +9475,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -10134,7 +9524,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -10183,7 +9573,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -10232,7 +9622,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -10281,7 +9671,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -10330,7 +9720,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -10379,7 +9769,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -10428,7 +9818,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -10477,7 +9867,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -10526,7 +9916,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -10575,7 +9965,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10624,7 +10014,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10673,7 +10063,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10722,7 +10112,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10771,7 +10161,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10820,7 +10210,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10869,7 +10259,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47">
+    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10918,7 +10308,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47">
+    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10967,7 +10357,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -11016,7 +10406,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -11065,7 +10455,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47">
+    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -11114,7 +10504,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47">
+    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -11163,7 +10553,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -11212,7 +10602,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -11261,7 +10651,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -11310,7 +10700,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -11360,8 +10750,8 @@
       <c r="AU203" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63257F4-1F11-49E4-A420-F862FB0D7E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3590" yWindow="840" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="840" windowWidth="19200" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -776,7 +775,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -879,10 +878,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1225,31 +1224,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1320,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1365,7 +1364,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1409,7 +1408,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1497,7 +1496,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1543,7 +1542,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1589,7 +1588,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1633,7 +1632,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1679,7 +1678,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1723,7 +1722,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1767,7 +1766,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1813,7 +1812,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1857,7 +1856,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1901,7 +1900,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1945,7 +1944,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1991,7 +1990,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2035,7 +2034,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2079,7 +2078,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2123,7 +2122,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2169,7 +2168,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2213,7 +2212,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2257,7 +2256,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2303,7 +2302,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2347,7 +2346,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2391,7 +2390,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2435,7 +2434,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2479,7 +2478,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2523,7 +2522,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2567,7 +2566,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2611,7 +2610,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2655,7 +2654,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2699,7 +2698,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2743,7 +2742,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2787,7 +2786,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2831,7 +2830,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2875,7 +2874,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2919,7 +2918,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -3051,7 +3050,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -3095,7 +3094,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3185,7 +3184,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3231,7 +3230,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -3319,7 +3318,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -3363,7 +3362,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -3409,7 +3408,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -3453,7 +3452,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -3497,7 +3496,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -3541,7 +3540,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -3673,7 +3672,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -3717,7 +3716,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -3761,7 +3760,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -3805,7 +3804,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -3849,7 +3848,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -3893,7 +3892,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -3937,7 +3936,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -3981,7 +3980,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -4025,7 +4024,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -4157,7 +4156,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -4201,7 +4200,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -4247,7 +4246,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -4339,7 +4338,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -4383,7 +4382,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -4427,7 +4426,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -4473,7 +4472,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -4517,7 +4516,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -4563,7 +4562,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -4607,7 +4606,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -4651,7 +4650,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -4695,7 +4694,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -4739,7 +4738,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -4783,7 +4782,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -4871,7 +4870,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -4915,7 +4914,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -4959,7 +4958,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -5003,7 +5002,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -5049,7 +5048,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>1000</v>
       </c>
@@ -5114,7 +5113,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5163,7 +5162,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5212,7 +5211,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5261,7 +5260,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5310,7 +5309,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5359,7 +5358,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5408,7 +5407,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5457,7 +5456,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5506,7 +5505,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5555,7 +5554,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5604,7 +5603,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5653,7 +5652,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5702,7 +5701,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5751,7 +5750,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5800,7 +5799,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5849,7 +5848,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5898,7 +5897,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5947,7 +5946,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5996,7 +5995,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6045,7 +6044,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6094,7 +6093,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6143,7 +6142,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6192,7 +6191,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6241,7 +6240,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6290,7 +6289,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6339,7 +6338,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6388,7 +6387,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6437,7 +6436,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6486,7 +6485,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6535,7 +6534,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6584,7 +6583,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6633,7 +6632,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6682,7 +6681,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6731,7 +6730,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6780,7 +6779,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6829,7 +6828,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6878,7 +6877,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6927,7 +6926,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6976,7 +6975,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7025,7 +7024,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7074,7 +7073,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7123,7 +7122,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7172,7 +7171,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7221,7 +7220,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7270,7 +7269,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7319,7 +7318,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7368,7 +7367,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7417,7 +7416,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7466,7 +7465,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7515,7 +7514,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7564,7 +7563,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7613,7 +7612,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7662,7 +7661,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7711,7 +7710,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7760,7 +7759,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7809,7 +7808,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7858,7 +7857,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7907,7 +7906,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7956,7 +7955,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8005,7 +8004,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8054,7 +8053,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8103,7 +8102,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8152,7 +8151,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8201,7 +8200,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8250,7 +8249,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8299,7 +8298,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8348,7 +8347,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8397,7 +8396,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8446,7 +8445,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8495,7 +8494,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8544,7 +8543,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8593,7 +8592,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8642,7 +8641,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8691,7 +8690,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8740,7 +8739,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -8789,7 +8788,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -8838,7 +8837,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8887,7 +8886,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8936,7 +8935,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8985,7 +8984,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9034,7 +9033,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9083,7 +9082,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9132,7 +9131,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9181,7 +9180,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9230,7 +9229,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9279,7 +9278,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9328,7 +9327,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9377,7 +9376,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -9426,7 +9425,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9475,7 +9474,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9524,7 +9523,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9573,7 +9572,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9622,7 +9621,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9671,7 +9670,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9720,7 +9719,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -9769,7 +9768,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -9818,7 +9817,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -9867,7 +9866,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -9916,7 +9915,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9965,7 +9964,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10014,7 +10013,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10063,7 +10062,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10112,7 +10111,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10161,7 +10160,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10210,7 +10209,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10259,7 +10258,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10308,7 +10307,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10357,7 +10356,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10406,7 +10405,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -10455,7 +10454,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10504,7 +10503,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10553,7 +10552,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10602,7 +10601,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10651,7 +10650,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10700,7 +10699,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
